--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>790875.218386351</v>
+        <v>788174.0017348941</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="C2" t="n">
-        <v>72.63544656439296</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.36698404190665</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>16.6619765928418</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>185.6739507563111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>129.477487459617</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>77.75392192072621</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897803</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776992</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>186.9290753935691</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>95.77682125737233</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713721</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>146.4018242463109</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>87.60336766488822</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>32.26299820372552</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
         <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>258.7708611745168</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
-        <v>23.94563726208663</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>307.6000736915345</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>14.72012191299762</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>22.44368512968938</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17.53779970793278</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784698</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D16" t="n">
-        <v>20.88994825141611</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>120.8326485140796</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795593</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503959</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.938329309431</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>176.1811323375796</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699815</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>173.1371582055054</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>100.58583229927</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>162.341301666749</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428044</v>
+        <v>3.006892987834647</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983378</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,13 +3718,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>225.3292088092206</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428139</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.7894056603332</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>294.4202677165019</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>294.4202677165019</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>646.859700735818</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946892</v>
+        <v>380.48204416864</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275112</v>
+        <v>380.48204416864</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275112</v>
+        <v>380.48204416864</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275112</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>641.1186907988871</v>
+        <v>197.1648447922849</v>
       </c>
       <c r="C3" t="n">
-        <v>466.66566151776</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>317.7312518565088</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
         <v>21.0971104001205</v>
@@ -4413,19 +4413,19 @@
         <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4440,19 +4440,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V3" t="n">
-        <v>848.9701910044199</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W3" t="n">
-        <v>848.9701910044199</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="X3" t="n">
-        <v>641.1186907988871</v>
+        <v>365.3801818123529</v>
       </c>
       <c r="Y3" t="n">
-        <v>641.1186907988871</v>
+        <v>365.3801818123529</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.8038243349425</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>305.8038243349425</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4516,22 +4516,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388467</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329599</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329599</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>305.8038243349425</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>305.8038243349425</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>408.4506529122693</v>
+        <v>1136.345205654774</v>
       </c>
       <c r="C5" t="n">
-        <v>408.4506529122693</v>
+        <v>816.591067584289</v>
       </c>
       <c r="D5" t="n">
-        <v>50.18495430551877</v>
+        <v>816.591067584289</v>
       </c>
       <c r="E5" t="n">
-        <v>50.18495430551877</v>
+        <v>430.8028149860448</v>
       </c>
       <c r="F5" t="n">
         <v>43.2394535563153</v>
@@ -4565,52 +4565,52 @@
         <v>30.69501822523457</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275187</v>
+        <v>93.76641159275164</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245575</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825652</v>
+        <v>456.1499114825644</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748886</v>
+        <v>729.4041931748878</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202383</v>
+        <v>1011.693823202382</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798417</v>
+        <v>1264.916654798416</v>
       </c>
       <c r="P5" t="n">
         <v>1446.535482189414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261728</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261728</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398246</v>
+        <v>1136.345205654774</v>
       </c>
       <c r="V5" t="n">
-        <v>950.0365560546755</v>
+        <v>1136.345205654774</v>
       </c>
       <c r="W5" t="n">
-        <v>597.2679007845613</v>
+        <v>1136.345205654774</v>
       </c>
       <c r="X5" t="n">
-        <v>408.4506529122693</v>
+        <v>1136.345205654774</v>
       </c>
       <c r="Y5" t="n">
-        <v>408.4506529122693</v>
+        <v>1136.345205654774</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>736.1063735076698</v>
+        <v>264.6115818588837</v>
       </c>
       <c r="C6" t="n">
-        <v>561.6533442265428</v>
+        <v>264.6115818588837</v>
       </c>
       <c r="D6" t="n">
-        <v>412.7189345652915</v>
+        <v>264.6115818588837</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7189345652915</v>
+        <v>167.867317962548</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1843765921765</v>
+        <v>167.867317962548</v>
       </c>
       <c r="G6" t="n">
-        <v>129.0120768548631</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H6" t="n">
         <v>30.69501822523457</v>
@@ -4644,52 +4644,52 @@
         <v>30.69501822523457</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563445</v>
+        <v>49.44206107563451</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169451</v>
+        <v>159.6385680169452</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482974</v>
+        <v>354.1339118482977</v>
       </c>
       <c r="M6" t="n">
-        <v>600.4576725190437</v>
+        <v>600.4576725190441</v>
       </c>
       <c r="N6" t="n">
-        <v>867.7095350912666</v>
+        <v>889.0545187259754</v>
       </c>
       <c r="O6" t="n">
-        <v>1098.496575411395</v>
+        <v>1111.317965891494</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948673</v>
+        <v>1270.370911090183</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261728</v>
+        <v>1530.346686757977</v>
       </c>
       <c r="S6" t="n">
-        <v>1534.750911261728</v>
+        <v>1385.878273152072</v>
       </c>
       <c r="T6" t="n">
-        <v>1534.750911261728</v>
+        <v>1189.973630703756</v>
       </c>
       <c r="U6" t="n">
-        <v>1534.750911261728</v>
+        <v>961.8525470243608</v>
       </c>
       <c r="V6" t="n">
-        <v>1299.598803029986</v>
+        <v>726.7004387926181</v>
       </c>
       <c r="W6" t="n">
-        <v>1151.718172478156</v>
+        <v>472.4630820644165</v>
       </c>
       <c r="X6" t="n">
-        <v>943.8666722726236</v>
+        <v>264.6115818588837</v>
       </c>
       <c r="Y6" t="n">
-        <v>736.1063735076698</v>
+        <v>264.6115818588837</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.5624688079288</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="C7" t="n">
-        <v>513.5624688079288</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="D7" t="n">
-        <v>363.445829395593</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="E7" t="n">
-        <v>215.5327358131999</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="F7" t="n">
-        <v>182.9438487387297</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="G7" t="n">
-        <v>182.9438487387297</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523457</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="I7" t="n">
         <v>30.69501822523457</v>
@@ -4729,13 +4729,13 @@
         <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830393</v>
+        <v>375.1387655830395</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388159</v>
+        <v>615.0688576388161</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974833</v>
+        <v>854.7285647974836</v>
       </c>
       <c r="O7" t="n">
         <v>1060.076798891673</v>
@@ -4744,31 +4744,31 @@
         <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495185</v>
+        <v>1113.866490402743</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529575</v>
+        <v>910.3578444371323</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.691890529575</v>
+        <v>685.6925863136769</v>
       </c>
       <c r="U7" t="n">
-        <v>741.5520197059461</v>
+        <v>685.6925863136769</v>
       </c>
       <c r="V7" t="n">
-        <v>741.5520197059461</v>
+        <v>685.6925863136769</v>
       </c>
       <c r="W7" t="n">
-        <v>741.5520197059461</v>
+        <v>685.6925863136769</v>
       </c>
       <c r="X7" t="n">
-        <v>513.5624688079288</v>
+        <v>457.7030354156595</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.5624688079288</v>
+        <v>236.9104562721294</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1467.671350819693</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>1467.671350819693</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>1109.405652212943</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>723.6173996146983</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>312.6314948250908</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300792</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1922.533821476954</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.8280128167644</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8918298888575</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765217</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
         <v>199.9856847044969</v>
@@ -4960,25 +4960,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>1612.258607688551</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>1384.269056790534</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>1163.476477647004</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1923.274119841216</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="C11" t="n">
-        <v>1554.311602900805</v>
+        <v>1116.52781219316</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.045904294054</v>
+        <v>1116.52781219316</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>805.8206670501953</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592073</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706892</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625329</v>
@@ -5054,37 +5054,37 @@
         <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796036</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377401</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498929</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155358</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>3073.479050142229</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.01329188115</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2309.873959905338</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870413</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>612.538132644993</v>
+        <v>889.4740370626171</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.494698601521</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1656.304008302731</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2124.245052635254</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2480.475928880028</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.1018916261538</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>412.1018916261538</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="D13" t="n">
-        <v>412.1018916261538</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="E13" t="n">
-        <v>412.1018916261539</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.62761945888</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.73628689332</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842771</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1103.960105636884</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>814.5429355999236</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>814.5429355999236</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>593.7503564563934</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,10 +5309,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121647</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,7 +5458,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>991.7436897307817</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>822.8075068028749</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>672.6908673905391</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>524.777773808146</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,13 +5674,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138401</v>
       </c>
       <c r="Y19" t="n">
-        <v>1173.392154561021</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856859</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577794</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>489.8360330454436</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>341.9229394630505</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>195.0329919651401</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159257</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2022.176527098168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.085317957303</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048575</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925218</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925218</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6771,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
@@ -6786,19 +6786,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.8620388433922</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>408.9258559154851</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>408.9258559154851</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>980.303082817162</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.5105036736319</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400699</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C37" t="n">
-        <v>344.917417812163</v>
+        <v>411.9631215597625</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138397</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703096</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,19 +7403,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>344.917417812164</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.917417812164</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7579,19 +7579,19 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121644</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121644</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121644</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636988</v>
+        <v>34.43939438636983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000849</v>
       </c>
       <c r="O6" t="n">
-        <v>8.609690055161593</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.0281872106964</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111063</v>
       </c>
       <c r="P9" t="n">
-        <v>70.03064962107891</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>74.3302963807273</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>334.5208468044154</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>122.9773628932419</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>208.1718556811044</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7255247667962</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856283</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>24.58839950885164</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253548</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823192</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>146.5858089828378</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>44.26829212178288</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>44.83521572366124</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>63.36835372228816</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393192</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393105</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>26.80843451460744</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228778</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295032</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>905961.039746308</v>
+        <v>905961.0397463078</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997293.8001304301</v>
+        <v>997293.8001304303</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.80013043</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>997293.8001304301</v>
+        <v>997293.8001304303</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>997293.8001304301</v>
+        <v>997293.8001304303</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>997293.8001304303</v>
+        <v>997293.8001304301</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>997293.8001304301</v>
+        <v>997293.80013043</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26314,31 @@
         <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.353244058</v>
+        <v>384609.3532440579</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372534</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372532</v>
@@ -26350,10 +26350,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372531</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.964837253</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657079</v>
+        <v>132804.2190657081</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929369</v>
+        <v>265413.0723929364</v>
       </c>
       <c r="E3" t="n">
         <v>313577.1573545773</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704287</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417448</v>
+        <v>30877.4292641745</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049536</v>
+        <v>65018.3450204954</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273083</v>
+        <v>81897.40371273072</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202363</v>
+        <v>49839.57413202369</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756581</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
@@ -26442,22 +26442,22 @@
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.200356756646</v>
-      </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756603</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756613</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667501</v>
+        <v>72593.65038667503</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738567</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-560632.1213032575</v>
       </c>
       <c r="C6" t="n">
-        <v>13103.26377504198</v>
+        <v>13103.26377504173</v>
       </c>
       <c r="D6" t="n">
-        <v>-64030.18934613558</v>
+        <v>-64030.18934613492</v>
       </c>
       <c r="E6" t="n">
-        <v>-23337.07097501508</v>
+        <v>-23558.20228898978</v>
       </c>
       <c r="F6" t="n">
-        <v>123983.9658861608</v>
+        <v>123949.227960725</v>
       </c>
       <c r="G6" t="n">
-        <v>313292.2346565896</v>
+        <v>313257.4967311538</v>
       </c>
       <c r="H6" t="n">
-        <v>313292.2346565895</v>
+        <v>313257.4967311536</v>
       </c>
       <c r="I6" t="n">
-        <v>313292.2346565895</v>
+        <v>313257.4967311537</v>
       </c>
       <c r="J6" t="n">
-        <v>244293.0802374754</v>
+        <v>244258.3423120397</v>
       </c>
       <c r="K6" t="n">
-        <v>282414.8053924151</v>
+        <v>282380.0674669793</v>
       </c>
       <c r="L6" t="n">
-        <v>248273.8896360941</v>
+        <v>248239.1517106583</v>
       </c>
       <c r="M6" t="n">
-        <v>231394.8309438587</v>
+        <v>231360.0930184231</v>
       </c>
       <c r="N6" t="n">
-        <v>263452.6605245658</v>
+        <v>263417.92259913</v>
       </c>
       <c r="O6" t="n">
-        <v>313292.2346565893</v>
+        <v>313257.4967311536</v>
       </c>
       <c r="P6" t="n">
-        <v>313292.2346565893</v>
+        <v>313257.4967311536</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695755</v>
+        <v>717.3319511695757</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000972</v>
+        <v>103.2769374000974</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479638</v>
+        <v>216.7329409479634</v>
       </c>
       <c r="E3" t="n">
         <v>268.1763450974113</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139259</v>
+        <v>119.973847813926</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846068</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.63599184897</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139259</v>
+        <v>119.973847813926</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846065</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139259</v>
+        <v>119.973847813926</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846068</v>
+        <v>256.8971042846067</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>292.6374452066146</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27433,19 +27433,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>313.870954614147</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>156.0465223954739</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27512,10 +27512,10 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>47.12663639311421</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.13798555859535</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27588,19 +27588,19 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>208.7690764158648</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508122726</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.1883179262793</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863681</v>
+        <v>99.30025118863676</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.8020252848999</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>61.86825919802861</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951726</v>
+        <v>36.27346476951724</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713749</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>105.2931589146087</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>92.22861251704907</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>113.1580498192057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643465</v>
+        <v>1.905236112643436</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>152.7768415984372</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
-        <v>262.5773610745044</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-2.633505650953315e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.700062395888381e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-6.063298011819521e-13</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365126</v>
+        <v>2.883746537365127</v>
       </c>
       <c r="H5" t="n">
-        <v>29.5331692257906</v>
+        <v>29.53316922579061</v>
       </c>
       <c r="I5" t="n">
         <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756935</v>
+        <v>244.7543826756936</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023594</v>
+        <v>366.8233736023595</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952474</v>
+        <v>455.0768316952476</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791145</v>
+        <v>506.3606591791146</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284032</v>
+        <v>514.5541040284033</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974787</v>
+        <v>485.8788493974788</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562771</v>
+        <v>414.6863567562772</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868884</v>
+        <v>311.4121838868885</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277622</v>
+        <v>181.1461434277623</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020787</v>
+        <v>65.71337422020788</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.23069972298921</v>
+        <v>0.2306997229892101</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,43 +31358,43 @@
         <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189782</v>
+        <v>53.12316808189784</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
         <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438664</v>
+        <v>335.0143230438665</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874186</v>
+        <v>390.9459133874187</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189119</v>
+        <v>401.293088418912</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348676</v>
+        <v>367.1047769348677</v>
       </c>
       <c r="P6" t="n">
         <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739559</v>
+        <v>196.954991573956</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392938</v>
+        <v>95.79765189392941</v>
       </c>
       <c r="S6" t="n">
         <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989054</v>
+        <v>6.219132670989056</v>
       </c>
       <c r="U6" t="n">
         <v>0.1015092383730532</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
         <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257206</v>
+        <v>38.90055892572061</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402931</v>
+        <v>91.45394400402934</v>
       </c>
       <c r="K7" t="n">
         <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545449</v>
+        <v>192.315520154545</v>
       </c>
       <c r="M7" t="n">
         <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022536</v>
+        <v>197.9483399022537</v>
       </c>
       <c r="O7" t="n">
         <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960661</v>
       </c>
       <c r="Q7" t="n">
         <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565113</v>
+        <v>58.16268574565115</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101763</v>
+        <v>22.54303853101764</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060662</v>
+        <v>5.526983886060663</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864685</v>
+        <v>0.07055724109864688</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,34 +31753,34 @@
         <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
         <v>303.5991401696629</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
         <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>267.5398078833327</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.6808312360685</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,10 +32084,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,7 +34781,7 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572287</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900725</v>
+        <v>63.70847814900733</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573788</v>
+        <v>146.7335225573789</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252602</v>
+        <v>219.3104167252603</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518418</v>
+        <v>276.0144259518419</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318123</v>
+        <v>285.1410404318124</v>
       </c>
       <c r="O5" t="n">
-        <v>255.780637975792</v>
+        <v>255.7806379757921</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010075</v>
+        <v>183.4533610010076</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243896</v>
+        <v>89.10649401243901</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959584</v>
+        <v>18.9364069195959</v>
       </c>
       <c r="K6" t="n">
         <v>111.3096029710209</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639922</v>
+        <v>196.4599432639923</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654003</v>
+        <v>248.8118794654004</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355786</v>
+        <v>291.5119658655872</v>
       </c>
       <c r="O6" t="n">
-        <v>233.1182225455847</v>
+        <v>224.5085324904232</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6877278154321</v>
+        <v>160.6595406047357</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793442</v>
+        <v>267.0505052237836</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142347</v>
+        <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.905545414861</v>
+        <v>219.9055454148611</v>
       </c>
       <c r="M7" t="n">
         <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814822</v>
+        <v>242.0805122814823</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809997</v>
+        <v>207.4224586809998</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609595</v>
+        <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491152</v>
+        <v>22.15508137491155</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>474.3640795072293</v>
       </c>
       <c r="P9" t="n">
-        <v>319.7101787446113</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
         <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>136.1980957999995</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.69905715004698</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070198</v>
@@ -35574,19 +35574,19 @@
         <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096343</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998971</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
